--- a/data/ClueLayoutTests.xlsx
+++ b/data/ClueLayoutTests.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mines0-my.sharepoint.com/personal/burns_mines_edu/Documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{8F1CACB8-1431-A54A-A4D2-8715BFAC834F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D20232A-DA5C-F04D-8818-316FF792B712}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-4940" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="45">
   <si>
     <t>BL</t>
   </si>
@@ -128,13 +134,33 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Number of Doors: 17</t>
+  </si>
+  <si>
+    <t>Red: Test occupied</t>
+  </si>
+  <si>
+    <t>LightBlue: Test targets</t>
+  </si>
+  <si>
+    <t>Dark Orange: Adjacency walkways</t>
+  </si>
+  <si>
+    <t>Light Orange: Adjacency from rooms and doors</t>
+  </si>
+  <si>
+    <t>White: Door direction tests</t>
+  </si>
+  <si>
+    <t>Grey: Occupied/Door Direction Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -156,7 +182,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,32 +191,68 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFc00000"/>
+        <fgColor rgb="FFC00000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF70ad47"/>
+        <fgColor rgb="FF70AD47"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030a0"/>
+        <fgColor rgb="FF7030A0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
+        <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFc5e0b4"/>
+        <fgColor rgb="FFC5E0B4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffc000"/>
+        <fgColor rgb="FFFFC000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -211,16 +273,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -228,56 +290,86 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="3" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFED8446"/>
+    </mruColors>
+  </colors>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -288,10 +380,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -329,71 +421,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -421,7 +513,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -444,11 +536,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -457,13 +549,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -473,7 +565,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -482,7 +574,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -491,7 +583,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -499,10 +591,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -567,52 +659,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AF37"/>
+  <dimension ref="A1:AF36"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="13" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="13" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="13" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="13" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="13" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="13" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="13" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="13" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="13" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="13" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="13" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="13" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="13" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="13" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="13" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="13" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="13" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="13" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="13" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="13" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="13" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="13" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="13" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="13" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="13" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="13" width="4.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="1" max="32" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="2">
         <v>0</v>
       </c>
@@ -707,7 +769,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -805,7 +867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -903,7 +965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -913,7 +975,7 @@
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -1001,7 +1063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1077,7 +1139,7 @@
       <c r="Y5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Z5" s="11" t="s">
+      <c r="Z5" s="21" t="s">
         <v>12</v>
       </c>
       <c r="AA5" s="7" t="s">
@@ -1099,7 +1161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1197,7 +1259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1258,7 +1320,7 @@
       <c r="T7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U7" s="10" t="s">
+      <c r="U7" s="19" t="s">
         <v>14</v>
       </c>
       <c r="V7" s="7" t="s">
@@ -1295,7 +1357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+    <row r="8" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1386,14 +1448,14 @@
       <c r="AD8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AE8" s="10" t="s">
+      <c r="AE8" s="22" t="s">
         <v>16</v>
       </c>
       <c r="AF8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1448,7 +1510,7 @@
       <c r="R9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="S9" s="16" t="s">
         <v>3</v>
       </c>
       <c r="T9" s="6" t="s">
@@ -1472,7 +1534,7 @@
       <c r="Z9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AA9" s="6" t="s">
+      <c r="AA9" s="16" t="s">
         <v>3</v>
       </c>
       <c r="AB9" s="6" t="s">
@@ -1491,7 +1553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1558,7 +1620,7 @@
       <c r="V10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="W10" s="10" t="s">
+      <c r="W10" s="22" t="s">
         <v>14</v>
       </c>
       <c r="X10" s="4" t="s">
@@ -1589,7 +1651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1632,7 +1694,7 @@
       <c r="N11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="O11" s="19" t="s">
         <v>3</v>
       </c>
       <c r="P11" s="6" t="s">
@@ -1687,7 +1749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1721,7 +1783,7 @@
       <c r="K12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="18" t="s">
         <v>16</v>
       </c>
       <c r="M12" s="6" t="s">
@@ -1733,7 +1795,7 @@
       <c r="O12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="P12" s="6" t="s">
+      <c r="P12" s="20" t="s">
         <v>3</v>
       </c>
       <c r="Q12" s="5" t="s">
@@ -1785,7 +1847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1883,7 +1945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1981,7 +2043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+    <row r="15" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2079,7 +2141,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
+    <row r="16" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2089,7 +2151,7 @@
       <c r="C16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="19" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -2177,7 +2239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
+    <row r="17" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2265,7 +2327,7 @@
       <c r="AC17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AD17" s="10" t="s">
+      <c r="AD17" s="22" t="s">
         <v>13</v>
       </c>
       <c r="AE17" s="6" t="s">
@@ -2275,7 +2337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
+    <row r="18" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2373,7 +2435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
+    <row r="19" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2471,7 +2533,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
+    <row r="20" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -2484,7 +2546,7 @@
       <c r="D20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="6" t="s">
@@ -2499,7 +2561,7 @@
       <c r="I20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="16" t="s">
         <v>3</v>
       </c>
       <c r="K20" s="6" t="s">
@@ -2526,7 +2588,7 @@
       <c r="R20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="S20" s="10" t="s">
+      <c r="S20" s="19" t="s">
         <v>13</v>
       </c>
       <c r="T20" s="6" t="s">
@@ -2569,7 +2631,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -2667,7 +2729,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -2728,7 +2790,7 @@
       <c r="T22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U22" s="10" t="s">
+      <c r="U22" s="18" t="s">
         <v>14</v>
       </c>
       <c r="V22" s="4" t="s">
@@ -2746,7 +2808,7 @@
       <c r="Z22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AA22" s="10" t="s">
+      <c r="AA22" s="18" t="s">
         <v>14</v>
       </c>
       <c r="AB22" s="4" t="s">
@@ -2755,7 +2817,7 @@
       <c r="AC22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AD22" s="9" t="s">
+      <c r="AD22" s="19" t="s">
         <v>31</v>
       </c>
       <c r="AE22" s="4" t="s">
@@ -2765,7 +2827,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -2790,7 +2852,7 @@
       <c r="H23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="25" t="s">
         <v>8</v>
       </c>
       <c r="J23" s="6" t="s">
@@ -2808,7 +2870,7 @@
       <c r="N23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="O23" s="11" t="s">
+      <c r="O23" s="23" t="s">
         <v>33</v>
       </c>
       <c r="P23" s="7" t="s">
@@ -2863,7 +2925,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -2961,7 +3023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="22.5">
+    <row r="25" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -3059,7 +3121,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="22.5">
+    <row r="26" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -3087,7 +3149,7 @@
       <c r="I26" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="J26" s="19" t="s">
         <v>3</v>
       </c>
       <c r="K26" s="6" t="s">
@@ -3157,382 +3219,75 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="22.5">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="22.5">
+    <row r="27" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="1">
+        <v>18</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="22.5">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="1"/>
-      <c r="AF29" s="1"/>
+    <row r="29" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="22.5">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
+    <row r="30" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="22.5">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="1"/>
+    <row r="31" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="22.5">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
-      <c r="AB32" s="1"/>
-      <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="1"/>
-      <c r="AF32" s="1"/>
+    <row r="32" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="22.5">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="1"/>
-      <c r="AF33" s="1"/>
+    <row r="33" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="22.5">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="1"/>
-      <c r="AF34" s="1"/>
+    <row r="34" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="22.5">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="1"/>
-      <c r="AB35" s="1"/>
-      <c r="AC35" s="1"/>
-      <c r="AD35" s="1"/>
-      <c r="AE35" s="1"/>
-      <c r="AF35" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="22.5">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="1"/>
-      <c r="AF36" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="22.5">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
-      <c r="AA37" s="1"/>
-      <c r="AB37" s="1"/>
-      <c r="AC37" s="1"/>
-      <c r="AD37" s="1"/>
-      <c r="AE37" s="1"/>
-      <c r="AF37" s="1"/>
-    </row>
+    <row r="35" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/ClueLayoutTests.xlsx
+++ b/data/ClueLayoutTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mines0-my.sharepoint.com/personal/burns_mines_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{8F1CACB8-1431-A54A-A4D2-8715BFAC834F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D20232A-DA5C-F04D-8818-316FF792B712}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{8F1CACB8-1431-A54A-A4D2-8715BFAC834F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9F1EFF5-4B91-7B4E-8DF1-B8047BD5B9B8}"/>
   <bookViews>
     <workbookView xWindow="-4940" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,9 +136,6 @@
     <t/>
   </si>
   <si>
-    <t>Number of Doors: 17</t>
-  </si>
-  <si>
     <t>Red: Test occupied</t>
   </si>
   <si>
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t>Grey: Occupied/Door Direction Test</t>
+  </si>
+  <si>
+    <t>Number of Doors: 19</t>
   </si>
 </sst>
 </file>
@@ -666,7 +666,7 @@
   <dimension ref="A1:AF36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3225,20 +3225,17 @@
         <v>37</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="1">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -3251,7 +3248,7 @@
     </row>
     <row r="31" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
@@ -3261,7 +3258,7 @@
     </row>
     <row r="32" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -3269,7 +3266,7 @@
     </row>
     <row r="33" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -3277,7 +3274,7 @@
     </row>
     <row r="34" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>

--- a/data/ClueLayoutTests.xlsx
+++ b/data/ClueLayoutTests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mines0-my.sharepoint.com/personal/burns_mines_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keena\Desktop\Clue\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{8F1CACB8-1431-A54A-A4D2-8715BFAC834F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9F1EFF5-4B91-7B4E-8DF1-B8047BD5B9B8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A73D04-B3D6-4E07-A4D8-F5ABAEE36B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4940" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -665,16 +665,16 @@
   </sheetPr>
   <dimension ref="A1:AF36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="32" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="2">
         <v>0</v>
       </c>
@@ -769,7 +769,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -867,7 +867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -965,7 +965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -3219,8 +3219,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="12" t="s">
         <v>37</v>
       </c>
@@ -3228,12 +3228,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="17" t="s">
         <v>41</v>
       </c>
@@ -3246,7 +3246,7 @@
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
     </row>
-    <row r="31" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="13" t="s">
         <v>40</v>
       </c>
@@ -3256,7 +3256,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="14" t="s">
         <v>39</v>
       </c>
@@ -3264,7 +3264,7 @@
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
     </row>
-    <row r="33" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="15" t="s">
         <v>38</v>
       </c>
@@ -3272,7 +3272,7 @@
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
     </row>
-    <row r="34" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="24" t="s">
         <v>43</v>
       </c>
@@ -3283,8 +3283,8 @@
       <c r="G34" s="24"/>
       <c r="H34" s="24"/>
     </row>
-    <row r="35" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="36" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/ClueLayoutTests.xlsx
+++ b/data/ClueLayoutTests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keena\Desktop\Clue\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A73D04-B3D6-4E07-A4D8-F5ABAEE36B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62D6943-94F5-48AF-BD78-ADE7BF7D87D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,25 +136,25 @@
     <t/>
   </si>
   <si>
-    <t>Red: Test occupied</t>
-  </si>
-  <si>
-    <t>LightBlue: Test targets</t>
-  </si>
-  <si>
-    <t>Dark Orange: Adjacency walkways</t>
-  </si>
-  <si>
-    <t>Light Orange: Adjacency from rooms and doors</t>
-  </si>
-  <si>
-    <t>White: Door direction tests</t>
-  </si>
-  <si>
-    <t>Grey: Occupied/Door Direction Test</t>
-  </si>
-  <si>
-    <t>Number of Doors: 19</t>
+    <t>white: door direction tests</t>
+  </si>
+  <si>
+    <t>light blue: test targets</t>
+  </si>
+  <si>
+    <t>number of doors: 19</t>
+  </si>
+  <si>
+    <t>bright blue: adjacency from rooms and doors</t>
+  </si>
+  <si>
+    <t>red: test occupied</t>
+  </si>
+  <si>
+    <t>grey: occupied/door direction test</t>
+  </si>
+  <si>
+    <t>dark orange: adjacency from walkways</t>
   </si>
 </sst>
 </file>
@@ -182,7 +182,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,12 +239,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -252,6 +246,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -330,10 +342,6 @@
     <xf numFmtId="3" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="1" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -343,14 +351,23 @@
     <xf numFmtId="3" fontId="2" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -665,16 +682,16 @@
   </sheetPr>
   <dimension ref="A1:AF36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="32" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="32" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <v>0</v>
       </c>
@@ -769,7 +786,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -797,7 +814,7 @@
       <c r="I2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="20" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="5" t="s">
@@ -867,7 +884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -965,7 +982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -975,7 +992,7 @@
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="26" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -1063,7 +1080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1139,7 +1156,7 @@
       <c r="Y5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Z5" s="21" t="s">
+      <c r="Z5" s="19" t="s">
         <v>12</v>
       </c>
       <c r="AA5" s="7" t="s">
@@ -1161,7 +1178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1259,7 +1276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1320,7 +1337,7 @@
       <c r="T7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U7" s="19" t="s">
+      <c r="U7" s="17" t="s">
         <v>14</v>
       </c>
       <c r="V7" s="7" t="s">
@@ -1357,7 +1374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1448,14 +1465,14 @@
       <c r="AD8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AE8" s="22" t="s">
+      <c r="AE8" s="20" t="s">
         <v>16</v>
       </c>
       <c r="AF8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1553,7 +1570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1620,7 +1637,7 @@
       <c r="V10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="W10" s="22" t="s">
+      <c r="W10" s="20" t="s">
         <v>14</v>
       </c>
       <c r="X10" s="4" t="s">
@@ -1651,7 +1668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1694,7 +1711,7 @@
       <c r="N11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O11" s="19" t="s">
+      <c r="O11" s="17" t="s">
         <v>3</v>
       </c>
       <c r="P11" s="6" t="s">
@@ -1749,7 +1766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1783,7 +1800,7 @@
       <c r="K12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="18" t="s">
+      <c r="L12" s="23" t="s">
         <v>16</v>
       </c>
       <c r="M12" s="6" t="s">
@@ -1795,7 +1812,7 @@
       <c r="O12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="P12" s="20" t="s">
+      <c r="P12" s="18" t="s">
         <v>3</v>
       </c>
       <c r="Q12" s="5" t="s">
@@ -1847,7 +1864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1945,7 +1962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2043,7 +2060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2141,7 +2158,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2151,7 +2168,7 @@
       <c r="C16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="17" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -2239,7 +2256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2327,7 +2344,7 @@
       <c r="AC17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AD17" s="22" t="s">
+      <c r="AD17" s="20" t="s">
         <v>13</v>
       </c>
       <c r="AE17" s="6" t="s">
@@ -2337,7 +2354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2435,7 +2452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2533,7 +2550,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -2546,7 +2563,7 @@
       <c r="D20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="26" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="6" t="s">
@@ -2588,7 +2605,7 @@
       <c r="R20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="S20" s="19" t="s">
+      <c r="S20" s="17" t="s">
         <v>13</v>
       </c>
       <c r="T20" s="6" t="s">
@@ -2631,7 +2648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -2729,7 +2746,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -2790,7 +2807,7 @@
       <c r="T22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U22" s="18" t="s">
+      <c r="U22" s="23" t="s">
         <v>14</v>
       </c>
       <c r="V22" s="4" t="s">
@@ -2808,7 +2825,7 @@
       <c r="Z22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AA22" s="18" t="s">
+      <c r="AA22" s="26" t="s">
         <v>14</v>
       </c>
       <c r="AB22" s="4" t="s">
@@ -2817,7 +2834,7 @@
       <c r="AC22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AD22" s="19" t="s">
+      <c r="AD22" s="17" t="s">
         <v>31</v>
       </c>
       <c r="AE22" s="4" t="s">
@@ -2827,7 +2844,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -2852,7 +2869,7 @@
       <c r="H23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="25" t="s">
+      <c r="I23" s="28" t="s">
         <v>8</v>
       </c>
       <c r="J23" s="6" t="s">
@@ -2870,7 +2887,7 @@
       <c r="N23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="O23" s="23" t="s">
+      <c r="O23" s="27" t="s">
         <v>33</v>
       </c>
       <c r="P23" s="7" t="s">
@@ -2925,7 +2942,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -3023,7 +3040,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -3121,7 +3138,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -3149,7 +3166,7 @@
       <c r="I26" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J26" s="19" t="s">
+      <c r="J26" s="17" t="s">
         <v>3</v>
       </c>
       <c r="K26" s="6" t="s">
@@ -3219,72 +3236,86 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="22"/>
+    </row>
+    <row r="29" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+    </row>
+    <row r="30" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+    </row>
+    <row r="31" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="13" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-    </row>
-    <row r="31" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="13" t="s">
-        <v>40</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
     </row>
-    <row r="32" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
     </row>
-    <row r="33" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
     </row>
-    <row r="34" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="24" t="s">
+    <row r="34" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="24"/>
     </row>
-    <row r="35" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="36" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/ClueLayoutTests.xlsx
+++ b/data/ClueLayoutTests.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keena\Desktop\Clue\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62D6943-94F5-48AF-BD78-ADE7BF7D87D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601A88C3-0D19-4F35-9266-62B95FD8325A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -683,7 +683,7 @@
   <dimension ref="A1:AF36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,8 +894,8 @@
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>5</v>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>1</v>
@@ -995,8 +995,8 @@
       <c r="D4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>1</v>
+      <c r="E4" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>1</v>
@@ -1019,8 +1019,8 @@
       <c r="L4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="9" t="s">
-        <v>9</v>
+      <c r="M4" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>6</v>
@@ -1408,8 +1408,8 @@
       <c r="K8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>6</v>
+      <c r="L8" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>6</v>
@@ -2070,8 +2070,8 @@
       <c r="C15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>21</v>
+      <c r="D15" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>15</v>
@@ -2284,8 +2284,8 @@
       <c r="I17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>15</v>
+      <c r="J17" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>15</v>
@@ -2635,8 +2635,8 @@
       <c r="AB20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AC20" s="4" t="s">
-        <v>23</v>
+      <c r="AC20" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="AD20" s="4" t="s">
         <v>23</v>
@@ -2736,8 +2736,8 @@
       <c r="AC21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AD21" s="9" t="s">
-        <v>27</v>
+      <c r="AD21" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="AE21" s="4" t="s">
         <v>23</v>
@@ -2756,8 +2756,8 @@
       <c r="C22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>28</v>
+      <c r="D22" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>25</v>
@@ -2789,8 +2789,8 @@
       <c r="N22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="O22" s="11" t="s">
-        <v>29</v>
+      <c r="O22" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>26</v>
@@ -2813,11 +2813,11 @@
       <c r="V22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="X22" s="9" t="s">
+      <c r="W22" s="9" t="s">
         <v>30</v>
+      </c>
+      <c r="X22" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="Y22" s="4" t="s">
         <v>24</v>
@@ -2952,8 +2952,8 @@
       <c r="C24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>25</v>
+      <c r="D24" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>25</v>
@@ -2985,8 +2985,8 @@
       <c r="N24" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>26</v>
+      <c r="O24" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>26</v>

--- a/data/ClueLayoutTests.xlsx
+++ b/data/ClueLayoutTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keena\Desktop\Clue\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601A88C3-0D19-4F35-9266-62B95FD8325A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE63ADE0-5ED5-43E7-98B8-95297E249CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -683,7 +683,7 @@
   <dimension ref="A1:AF36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,8 +897,8 @@
       <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>1</v>
+      <c r="E3" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>1</v>
@@ -995,8 +995,8 @@
       <c r="D4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>5</v>
+      <c r="E4" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>1</v>
@@ -1052,14 +1052,14 @@
       <c r="W4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="X4" s="7" t="s">
-        <v>4</v>
+      <c r="X4" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="Y4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Z4" s="11" t="s">
-        <v>10</v>
+      <c r="Z4" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="AA4" s="7" t="s">
         <v>4</v>
@@ -1839,14 +1839,14 @@
       <c r="X12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Y12" s="4" t="s">
-        <v>17</v>
+      <c r="Y12" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="Z12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AA12" s="9" t="s">
-        <v>19</v>
+      <c r="AA12" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="AB12" s="4" t="s">
         <v>17</v>
@@ -2715,8 +2715,8 @@
       <c r="V21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W21" s="4" t="s">
-        <v>24</v>
+      <c r="W21" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="X21" s="4" t="s">
         <v>24</v>
@@ -2756,8 +2756,8 @@
       <c r="C22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>25</v>
+      <c r="D22" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>25</v>
@@ -2789,8 +2789,8 @@
       <c r="N22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="O22" s="7" t="s">
-        <v>26</v>
+      <c r="O22" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>26</v>
@@ -2813,8 +2813,8 @@
       <c r="V22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W22" s="9" t="s">
-        <v>30</v>
+      <c r="W22" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="X22" s="4" t="s">
         <v>24</v>
@@ -2952,8 +2952,8 @@
       <c r="C24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>28</v>
+      <c r="D24" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>25</v>
@@ -2985,8 +2985,8 @@
       <c r="N24" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="O24" s="11" t="s">
-        <v>29</v>
+      <c r="O24" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>26</v>
